--- a/code/excels/npc_items_custom.xlsx
+++ b/code/excels/npc_items_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -263,16 +263,16 @@
     <t>#base</t>
   </si>
   <si>
-    <t>building\building_item_card.kv</t>
-  </si>
-  <si>
-    <t>items\dota_items.kv</t>
-  </si>
-  <si>
-    <t>items\neutral_items.kv</t>
-  </si>
-  <si>
-    <t>items\avalon_items.kv</t>
+    <t>building/building_item_card.kv</t>
+  </si>
+  <si>
+    <t>items/dota_items.kv</t>
+  </si>
+  <si>
+    <t>items/neutral_items.kv</t>
+  </si>
+  <si>
+    <t>items/avalon_items.kv</t>
   </si>
 </sst>
 </file>
@@ -280,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -295,21 +295,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,92 +402,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,16 +424,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,187 +453,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,11 +662,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,17 +710,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,15 +736,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -729,31 +744,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1252,7 +1252,7 @@
       <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="28.3333333333333" style="9" customWidth="1"/>
     <col min="2" max="4" width="25.1666666666667" style="9" customWidth="1"/>
@@ -1530,10 +1530,10 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="12.4166666666667" customWidth="1"/>

--- a/code/excels/npc_items_custom.xlsx
+++ b/code/excels/npc_items_custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
   <si>
     <t>主键</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>building/building_item_card.kv</t>
+  </si>
+  <si>
+    <t>items/imba_items.kv</t>
   </si>
   <si>
     <t>items/dota_items.kv</t>
@@ -1252,7 +1255,7 @@
       <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="28.3333333333333" style="9" customWidth="1"/>
     <col min="2" max="4" width="25.1666666666667" style="9" customWidth="1"/>
@@ -1530,10 +1533,10 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="23.4166666666667" customWidth="1"/>
     <col min="2" max="2" width="12.4166666666667" customWidth="1"/>
@@ -1967,21 +1970,26 @@
         <v>81</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H8" s="5"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:17">

--- a/code/excels/npc_items_custom.xlsx
+++ b/code/excels/npc_items_custom.xlsx
@@ -269,7 +269,7 @@
     <t>items/imba_items.kv</t>
   </si>
   <si>
-    <t>items/dota_items.kv</t>
+    <t>items/artifact_items.kv</t>
   </si>
   <si>
     <t>items/neutral_items.kv</t>
@@ -1533,7 +1533,7 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1975,8 +1975,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
-      <c r="C8" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>83</v>
       </c>
       <c r="H8" s="5"/>
@@ -1991,6 +1991,9 @@
       <c r="C10" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="3"/>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="4"/>

--- a/code/excels/npc_items_custom.xlsx
+++ b/code/excels/npc_items_custom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
   <si>
     <t>主键</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>items/artifact_items.kv</t>
+  </si>
+  <si>
+    <t>items/imba_item_recipes.kv</t>
   </si>
   <si>
     <t>items/neutral_items.kv</t>
@@ -1533,7 +1536,7 @@
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1982,14 +1985,17 @@
       <c r="H8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="3:3">
